--- a/Docs/CV_RESOLUTION_TESTS.xlsx
+++ b/Docs/CV_RESOLUTION_TESTS.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Laur/Desktop/Dean/Code/Erica_Dissertation/Erica_Dissertation/Analysis_Scripts/Chapter3/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C957A36-2445-6F4D-9472-3B9C56153F62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDC0971-67BB-2340-8E7A-CBE7A4E60229}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19780" yWindow="460" windowWidth="13820" windowHeight="20540" activeTab="1" xr2:uid="{2797086E-D36C-4E4F-965C-745965E54750}"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="20560" windowHeight="18900" firstSheet="1" activeTab="5" xr2:uid="{2797086E-D36C-4E4F-965C-745965E54750}"/>
   </bookViews>
   <sheets>
     <sheet name="test train1" sheetId="1" r:id="rId1"/>
-    <sheet name="CV 10fold" sheetId="2" r:id="rId2"/>
+    <sheet name="CV 10fold STRICT" sheetId="2" r:id="rId2"/>
+    <sheet name="CV 10FOLD LENIENT" sheetId="3" r:id="rId3"/>
+    <sheet name="CV 10fold m1" sheetId="4" r:id="rId4"/>
+    <sheet name="CV 10fold m2" sheetId="5" r:id="rId5"/>
+    <sheet name="CV 10fold sub strict" sheetId="6" r:id="rId6"/>
+    <sheet name="CV 10fold sub lenient" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
   <si>
     <t>RESOLUTION</t>
   </si>
@@ -387,6 +392,42 @@
   </si>
   <si>
     <t>CV_10</t>
+  </si>
+  <si>
+    <t>CVL_1</t>
+  </si>
+  <si>
+    <t>CVL_2</t>
+  </si>
+  <si>
+    <t>CVL_3</t>
+  </si>
+  <si>
+    <t>CVL_4</t>
+  </si>
+  <si>
+    <t>CVM1_1</t>
+  </si>
+  <si>
+    <t>CVM1_2</t>
+  </si>
+  <si>
+    <t>CVM2_1</t>
+  </si>
+  <si>
+    <t>CVM2_2</t>
+  </si>
+  <si>
+    <t>VEG POINTS USED</t>
+  </si>
+  <si>
+    <t>VEG AUC SCORE 10-FOLD CV</t>
+  </si>
+  <si>
+    <t>DIRT AUC SCORE 10-FOLD CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRT POINTS USED </t>
   </si>
 </sst>
 </file>
@@ -430,7 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -650,6 +691,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -671,6 +727,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -683,19 +751,22 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,16 +1119,16 @@
       <c r="A2" s="4">
         <v>0.03</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="18">
         <v>61317</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="18">
         <v>524204</v>
       </c>
     </row>
@@ -1065,25 +1136,25 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="18">
         <v>31770</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="18">
         <v>271709</v>
       </c>
     </row>
@@ -1091,25 +1162,25 @@
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="18">
         <v>27272</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="18">
         <v>232956</v>
       </c>
     </row>
@@ -1117,25 +1188,25 @@
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>0.05</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="18">
         <v>22110</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="18">
         <v>188766</v>
       </c>
     </row>
@@ -1143,25 +1214,25 @@
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="18">
         <v>18247</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="18">
         <v>155974</v>
       </c>
     </row>
@@ -1169,25 +1240,25 @@
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="18">
         <v>11241</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="18">
         <v>96200</v>
       </c>
     </row>
@@ -1195,25 +1266,25 @@
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>0.08</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="18">
         <v>8634</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="18">
         <v>73745</v>
       </c>
     </row>
@@ -1221,25 +1292,25 @@
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0.1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="18">
         <v>5512</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="18">
         <v>47151</v>
       </c>
     </row>
@@ -1247,25 +1318,25 @@
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>0.2</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="18">
         <v>1385</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="18">
         <v>11803</v>
       </c>
     </row>
@@ -1273,25 +1344,25 @@
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>0.3</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="16">
         <v>606</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="18">
         <v>5237</v>
       </c>
     </row>
@@ -1299,25 +1370,25 @@
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>0.35</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="16">
         <v>456</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="18">
         <v>3844</v>
       </c>
     </row>
@@ -1325,25 +1396,25 @@
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>0.375</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="16">
         <v>391</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="18">
         <v>3361</v>
       </c>
     </row>
@@ -1351,25 +1422,25 @@
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>0.38</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="16">
         <v>382</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="18">
         <v>3244</v>
       </c>
     </row>
@@ -1377,25 +1448,25 @@
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>0.38500000000000001</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="16">
         <v>374</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="18">
         <v>3173</v>
       </c>
     </row>
@@ -1403,25 +1474,25 @@
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>0.39</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="16">
         <v>355</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="18">
         <v>3099</v>
       </c>
     </row>
@@ -1429,25 +1500,25 @@
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="14"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="16">
         <v>354</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="18">
         <v>3014</v>
       </c>
     </row>
@@ -1455,25 +1526,25 @@
       <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="14"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>0.39700000000000002</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="16">
         <v>343</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="18">
         <v>3000</v>
       </c>
     </row>
@@ -1481,25 +1552,25 @@
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="14"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>0.4</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="16">
         <v>349</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="18">
         <v>2968</v>
       </c>
     </row>
@@ -1507,25 +1578,25 @@
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>0.40500000000000003</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="16">
         <v>329</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="18">
         <v>2879</v>
       </c>
     </row>
@@ -1533,25 +1604,25 @@
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="14"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>0.41</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="16">
         <v>321</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="18">
         <v>2803</v>
       </c>
     </row>
@@ -1559,25 +1630,25 @@
       <c r="A41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="16">
         <v>295</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="18">
         <v>2624</v>
       </c>
     </row>
@@ -1585,25 +1656,25 @@
       <c r="A43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="14"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>0.43</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="16">
         <v>293</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="18">
         <v>2546</v>
       </c>
     </row>
@@ -1611,25 +1682,25 @@
       <c r="A45" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>0.435</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="16">
         <v>295</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="18">
         <v>2485</v>
       </c>
     </row>
@@ -1637,25 +1708,25 @@
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>0.44</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="16">
         <v>283</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="18">
         <v>2447</v>
       </c>
     </row>
@@ -1663,25 +1734,25 @@
       <c r="A49" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>0.45</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="16">
         <v>265</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="18">
         <v>2319</v>
       </c>
     </row>
@@ -1689,25 +1760,25 @@
       <c r="A51" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="16">
         <v>237</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="18">
         <v>2103</v>
       </c>
     </row>
@@ -1715,25 +1786,25 @@
       <c r="A53" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>0.5</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="16">
         <v>233</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="18">
         <v>1891</v>
       </c>
     </row>
@@ -1741,25 +1812,25 @@
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="16">
         <v>57</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="16">
         <v>481</v>
       </c>
     </row>
@@ -1767,25 +1838,25 @@
       <c r="A57" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="16">
         <v>13</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="16">
         <v>111</v>
       </c>
     </row>
@@ -1793,10 +1864,10 @@
       <c r="A59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -1925,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A586D0E9-9903-8840-A17A-8EA86A577ED3}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1959,40 +2030,40 @@
       <c r="A2" s="7">
         <v>0.03</v>
       </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
         <v>61317</v>
       </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
         <v>524204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="20">
         <v>0.61799999999999999</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="21">
         <v>31770</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="29">
         <v>271709</v>
       </c>
     </row>
@@ -2000,213 +2071,213 @@
       <c r="A5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
         <v>27272</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
         <v>232956</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0.05</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
         <v>22110</v>
       </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
         <v>188766</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>5.5E-2</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
         <v>18247</v>
       </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
         <v>155974</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
         <v>11241</v>
       </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
         <v>96200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>0.08</v>
       </c>
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
         <v>8634</v>
       </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <v>73745</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.1</v>
       </c>
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
-      <c r="C16" s="16">
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
         <v>5512</v>
       </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
         <v>47151</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>0.2</v>
       </c>
-      <c r="B18" s="15">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
         <v>1385</v>
       </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
         <v>11803</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>0.25</v>
       </c>
-      <c r="B20" s="24">
-        <v>0</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20"/>
+      <c r="B20" s="23">
+        <v>0</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>0.3</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="23">
         <v>0.93899999999999995</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>606</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="25">
         <v>0.77100000000000002</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="29">
         <v>5237</v>
       </c>
     </row>
@@ -2214,25 +2285,25 @@
       <c r="A23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>0.32500000000000001</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="23">
         <v>0.94099999999999995</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>527</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="25">
         <v>0.78600000000000003</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="29">
         <v>4466</v>
       </c>
     </row>
@@ -2240,25 +2311,25 @@
       <c r="A25" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>0.35</v>
       </c>
-      <c r="B26" s="15">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15">
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="20">
         <v>456</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="22">
         <v>0.79800000000000004</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="29">
         <v>3844</v>
       </c>
     </row>
@@ -2266,25 +2337,25 @@
       <c r="A27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
+      <c r="A28" s="14">
         <v>0.36</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="20">
         <v>0.94599999999999995</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="20">
         <v>432</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="35">
         <v>0.80100000000000005</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="29">
         <v>3664</v>
       </c>
     </row>
@@ -2292,25 +2363,25 @@
       <c r="A29" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>0.375</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="20">
         <v>0.94399999999999995</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="20">
         <v>391</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="22">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="29">
         <v>3361</v>
       </c>
     </row>
@@ -2318,25 +2389,25 @@
       <c r="A31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>0.38</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="20">
         <v>0.94799999999999995</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="20">
         <v>382</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="22">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="29">
         <v>3244</v>
       </c>
     </row>
@@ -2344,25 +2415,25 @@
       <c r="A33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>0.38500000000000001</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="20">
         <v>0.94799999999999995</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="20">
         <v>374</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="22">
         <v>0.81399999999999995</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="29">
         <v>3173</v>
       </c>
     </row>
@@ -2370,97 +2441,97 @@
       <c r="A35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>0.39</v>
       </c>
-      <c r="B36" s="15">
-        <v>0</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="B36" s="20">
+        <v>0</v>
+      </c>
+      <c r="C36" s="20">
         <v>355</v>
       </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="20">
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="29">
         <v>3099</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>0.39500000000000002</v>
       </c>
-      <c r="B38" s="15">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="20">
         <v>354</v>
       </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="20">
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
         <v>3014</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>0.39700000000000002</v>
       </c>
-      <c r="B40" s="15">
-        <v>0</v>
-      </c>
-      <c r="C40" s="15">
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="20">
         <v>343</v>
       </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="20">
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
         <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>0.4</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="20">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="20">
         <v>349</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="22">
         <v>0.81499999999999995</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="29">
         <v>2968</v>
       </c>
     </row>
@@ -2468,217 +2539,217 @@
       <c r="A43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>0.40500000000000003</v>
       </c>
-      <c r="B44" s="15">
-        <v>0</v>
-      </c>
-      <c r="C44" s="15">
+      <c r="B44" s="20">
+        <v>0</v>
+      </c>
+      <c r="C44" s="20">
         <v>329</v>
       </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="20">
+      <c r="D44" s="22">
+        <v>0</v>
+      </c>
+      <c r="E44" s="29">
         <v>2879</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>0.41</v>
       </c>
-      <c r="B46" s="15">
-        <v>0</v>
-      </c>
-      <c r="C46" s="15">
+      <c r="B46" s="20">
+        <v>0</v>
+      </c>
+      <c r="C46" s="20">
         <v>321</v>
       </c>
-      <c r="D46" s="17">
-        <v>0</v>
-      </c>
-      <c r="E46" s="20">
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29">
         <v>2803</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="30"/>
     </row>
     <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>0.42499999999999999</v>
       </c>
-      <c r="B48" s="15">
-        <v>0</v>
-      </c>
-      <c r="C48" s="15">
+      <c r="B48" s="20">
+        <v>0</v>
+      </c>
+      <c r="C48" s="20">
         <v>295</v>
       </c>
-      <c r="D48" s="17">
-        <v>0</v>
-      </c>
-      <c r="E48" s="20">
+      <c r="D48" s="22">
+        <v>0</v>
+      </c>
+      <c r="E48" s="29">
         <v>2624</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>0.43</v>
       </c>
-      <c r="B50" s="15">
-        <v>0</v>
-      </c>
-      <c r="C50" s="15">
+      <c r="B50" s="20">
+        <v>0</v>
+      </c>
+      <c r="C50" s="20">
         <v>293</v>
       </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="20">
+      <c r="D50" s="22">
+        <v>0</v>
+      </c>
+      <c r="E50" s="29">
         <v>2546</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="21"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="30"/>
     </row>
     <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>0.435</v>
       </c>
-      <c r="B52" s="15">
-        <v>0</v>
-      </c>
-      <c r="C52" s="15">
+      <c r="B52" s="20">
+        <v>0</v>
+      </c>
+      <c r="C52" s="20">
         <v>295</v>
       </c>
-      <c r="D52" s="17">
-        <v>0</v>
-      </c>
-      <c r="E52" s="20">
+      <c r="D52" s="22">
+        <v>0</v>
+      </c>
+      <c r="E52" s="29">
         <v>2485</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="21"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="30"/>
     </row>
     <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>0.44</v>
       </c>
-      <c r="B54" s="15">
-        <v>0</v>
-      </c>
-      <c r="C54" s="15">
+      <c r="B54" s="20">
+        <v>0</v>
+      </c>
+      <c r="C54" s="20">
         <v>283</v>
       </c>
-      <c r="D54" s="17">
-        <v>0</v>
-      </c>
-      <c r="E54" s="20">
+      <c r="D54" s="22">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
         <v>2447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="21"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="30"/>
     </row>
     <row r="56" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>0.45</v>
       </c>
-      <c r="B56" s="15">
-        <v>0</v>
-      </c>
-      <c r="C56" s="15">
+      <c r="B56" s="20">
+        <v>0</v>
+      </c>
+      <c r="C56" s="20">
         <v>265</v>
       </c>
-      <c r="D56" s="17">
-        <v>0</v>
-      </c>
-      <c r="E56" s="20">
+      <c r="D56" s="22">
+        <v>0</v>
+      </c>
+      <c r="E56" s="29">
         <v>2319</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="21"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="30"/>
     </row>
     <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>0.47499999999999998</v>
       </c>
-      <c r="B58" s="15">
-        <v>0</v>
-      </c>
-      <c r="C58" s="15">
+      <c r="B58" s="20">
+        <v>0</v>
+      </c>
+      <c r="C58" s="20">
         <v>237</v>
       </c>
-      <c r="D58" s="17">
-        <v>0</v>
-      </c>
-      <c r="E58" s="20">
+      <c r="D58" s="22">
+        <v>0</v>
+      </c>
+      <c r="E58" s="29">
         <v>2103</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="30"/>
     </row>
     <row r="60" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>0.5</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="20">
         <v>0.94299999999999995</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="20">
         <v>233</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="22">
         <v>0.84299999999999997</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="29">
         <v>1891</v>
       </c>
     </row>
@@ -2686,58 +2757,58 @@
       <c r="A61" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="21"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="30"/>
     </row>
     <row r="62" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>1</v>
       </c>
-      <c r="B62" s="15">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15">
+      <c r="B62" s="20">
+        <v>0</v>
+      </c>
+      <c r="C62" s="20">
         <v>57</v>
       </c>
-      <c r="D62" s="17">
-        <v>0</v>
-      </c>
-      <c r="E62" s="18">
+      <c r="D62" s="22">
+        <v>0</v>
+      </c>
+      <c r="E62" s="27">
         <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="28"/>
     </row>
     <row r="64" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>2</v>
       </c>
-      <c r="B64" s="15">
-        <v>0</v>
-      </c>
-      <c r="C64" s="15">
+      <c r="B64" s="20">
+        <v>0</v>
+      </c>
+      <c r="C64" s="20">
         <v>13</v>
       </c>
-      <c r="D64" s="17">
-        <v>0</v>
-      </c>
-      <c r="E64" s="18">
+      <c r="D64" s="22">
+        <v>0</v>
+      </c>
+      <c r="E64" s="27">
         <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="19"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="128">
@@ -2872,4 +2943,2192 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5D2DA0-F3E1-5A4C-90DA-26BC5CBA4465}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="C20" s="31">
+        <v>998</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E20" s="29">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B22" s="23">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="C22" s="31">
+        <v>816</v>
+      </c>
+      <c r="D22" s="33">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="29">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C24" s="21">
+        <v>691</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E24" s="29">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="B28" s="20">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
+        <v>0</v>
+      </c>
+      <c r="E28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="B30" s="20">
+        <v>0.92</v>
+      </c>
+      <c r="C30" s="21">
+        <v>492</v>
+      </c>
+      <c r="D30" s="22">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E30" s="29">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="B32" s="20">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="B34" s="20">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B36" s="20">
+        <v>0</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>0.39</v>
+      </c>
+      <c r="B38" s="20">
+        <v>0</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0</v>
+      </c>
+      <c r="E38" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+      <c r="E40" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="B42" s="20">
+        <v>0</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0</v>
+      </c>
+      <c r="E42" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="84">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1519F8-DECD-4D46-9836-7E54F77133AE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C12" s="21">
+        <v>495</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E12" s="29">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.93</v>
+      </c>
+      <c r="C14" s="21">
+        <v>474</v>
+      </c>
+      <c r="D14" s="35">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="B22" s="20">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD2A878-38CF-7943-80B2-285D91C1B974}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C14" s="21">
+        <v>3690</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="E14" s="29">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="B16" s="36">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3391</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E16" s="29">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42963074-9178-4347-BE04-C811C2FC523A}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C16" s="21">
+        <v>505</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E16" s="29">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C18" s="21">
+        <v>483</v>
+      </c>
+      <c r="D18" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="29">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C20" s="21">
+        <v>429</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="E20" s="29">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="B22" s="20">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273F9889-BCA1-1B4A-9FE5-2D635F0F70A6}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="B14" s="20">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="B16" s="20">
+        <v>0</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="B18" s="20">
+        <v>0</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>0.38</v>
+      </c>
+      <c r="B22" s="20">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B24" s="20">
+        <v>0</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>0.39</v>
+      </c>
+      <c r="B26" s="20">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0</v>
+      </c>
+      <c r="E26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>